--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2023351.152726687</v>
+        <v>2021145.059320248</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604726</v>
+        <v>7094780.682604727</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>154.6378487504179</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>14.0301000117425</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4414032841481</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208644</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>69.92680236866707</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.0198424776875</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.5248788930305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>360.8894349030056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>46.36558293808029</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>84.99369984270635</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.6625960688247</v>
@@ -795,7 +795,7 @@
         <v>225.8965846405547</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>123.2471841543779</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4201179865476</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>30.44314855471274</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255605</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2878914634775</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>261.8436828907076</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>204.3689414076597</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498675</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.5310119231965</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.72683757586862</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>234.7283054736623</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.720818561896</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>326.2396125556947</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>162.3364906735232</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>59.72683757586869</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881757</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396174</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>23.7150739468993</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.41948680756504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534525</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>162.6836227434013</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>39.46868262780625</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>102.146703703602</v>
       </c>
       <c r="W19" t="n">
-        <v>231.9686502089666</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>27.96418733058712</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054944</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>135.0582633082009</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>17.81028347014028</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2533,16 +2533,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>65.49637444298898</v>
+        <v>79.54367350501158</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>73.53720539716795</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>81.33319061975662</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>87.74528933220127</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.2384253774348</v>
+        <v>347.238425377435</v>
       </c>
       <c r="C35" t="n">
-        <v>329.7774754849618</v>
+        <v>329.777475484962</v>
       </c>
       <c r="D35" t="n">
-        <v>319.1876253346372</v>
+        <v>319.1876253346374</v>
       </c>
       <c r="E35" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862162</v>
       </c>
       <c r="F35" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556659</v>
       </c>
       <c r="G35" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674079</v>
       </c>
       <c r="H35" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012749</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880162</v>
+        <v>6.081513486880404</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213005</v>
+        <v>73.69234550213028</v>
       </c>
       <c r="T35" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535746</v>
       </c>
       <c r="U35" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728564</v>
       </c>
       <c r="V35" t="n">
-        <v>292.2568421840891</v>
+        <v>292.2568421840894</v>
       </c>
       <c r="W35" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313675</v>
       </c>
       <c r="X35" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924235</v>
       </c>
       <c r="Y35" t="n">
-        <v>350.7425223700078</v>
+        <v>350.742522370008</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958917</v>
       </c>
       <c r="C37" t="n">
-        <v>131.7514048125821</v>
+        <v>131.7514048125823</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321666</v>
+        <v>113.1200567321668</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>110.9385463605236</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9256317368855</v>
+        <v>109.9256317368857</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>130.5303919729827</v>
       </c>
       <c r="H37" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379231</v>
+        <v>60.85700412379254</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400155</v>
+        <v>53.43673638400178</v>
       </c>
       <c r="S37" t="n">
-        <v>154.2736090453961</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>184.0535329901234</v>
+        <v>173.9010241596081</v>
       </c>
       <c r="U37" t="n">
-        <v>250.7164219195671</v>
+        <v>250.7164219195673</v>
       </c>
       <c r="V37" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377824</v>
       </c>
       <c r="W37" t="n">
-        <v>218.8108038798702</v>
+        <v>251.0275820505454</v>
       </c>
       <c r="X37" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029916</v>
       </c>
       <c r="Y37" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660492</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774347</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C38" t="n">
-        <v>329.7774754849617</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D38" t="n">
-        <v>319.1876253346371</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E38" t="n">
-        <v>346.4349537862159</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F38" t="n">
-        <v>371.3806294556656</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G38" t="n">
-        <v>375.4263093674076</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H38" t="n">
-        <v>259.1123481012746</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880105</v>
+        <v>6.081513486880162</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213</v>
+        <v>73.69234550213005</v>
       </c>
       <c r="T38" t="n">
-        <v>168.4225538535743</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V38" t="n">
         <v>292.2568421840891</v>
@@ -3566,10 +3566,10 @@
         <v>313.7455524313672</v>
       </c>
       <c r="X38" t="n">
-        <v>334.2356843924232</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700077</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321665</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>110.9385463605233</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368854</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G40" t="n">
-        <v>42.03281666538602</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>109.2595986282749</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379226</v>
+        <v>60.8570041237923</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>53.43673638400154</v>
       </c>
       <c r="S40" t="n">
         <v>154.2736090453961</v>
@@ -3715,7 +3715,7 @@
         <v>184.0535329901234</v>
       </c>
       <c r="U40" t="n">
-        <v>250.716421919567</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V40" t="n">
         <v>216.6422270377822</v>
@@ -3724,10 +3724,10 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2142391029913</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.089237066049</v>
+        <v>153.0539692670172</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>329.7774754849617</v>
       </c>
       <c r="D41" t="n">
-        <v>319.1876253346383</v>
+        <v>319.1876253346371</v>
       </c>
       <c r="E41" t="n">
         <v>346.4349537862159</v>
@@ -3758,7 +3758,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880112</v>
+        <v>6.081513486880127</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213</v>
+        <v>73.69234550213001</v>
       </c>
       <c r="T41" t="n">
         <v>168.4225538535743</v>
       </c>
       <c r="U41" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V41" t="n">
         <v>292.2568421840891</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3910,13 +3910,13 @@
         <v>109.9256317368854</v>
       </c>
       <c r="G43" t="n">
-        <v>101.7552125827191</v>
+        <v>40.89820845892568</v>
       </c>
       <c r="H43" t="n">
-        <v>109.2595986282749</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>60.85700412379227</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>346.4349537862159</v>
       </c>
       <c r="F44" t="n">
-        <v>371.3806294556668</v>
+        <v>371.3806294556655</v>
       </c>
       <c r="G44" t="n">
         <v>375.4263093674076</v>
@@ -3995,7 +3995,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880112</v>
+        <v>6.081513486880063</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550213</v>
+        <v>73.69234550212994</v>
       </c>
       <c r="T44" t="n">
-        <v>168.4225538535743</v>
+        <v>168.4225538535742</v>
       </c>
       <c r="U44" t="n">
         <v>215.4997556728561</v>
       </c>
       <c r="V44" t="n">
-        <v>292.2568421840891</v>
+        <v>292.256842184089</v>
       </c>
       <c r="W44" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313671</v>
       </c>
       <c r="X44" t="n">
-        <v>334.2356843924232</v>
+        <v>334.2356843924231</v>
       </c>
       <c r="Y44" t="n">
         <v>350.7425223700077</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958914</v>
       </c>
       <c r="C46" t="n">
-        <v>131.751404812582</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>113.1200567321665</v>
@@ -4147,13 +4147,13 @@
         <v>109.9256317368854</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729824</v>
+        <v>130.5303919729823</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>20.76202332067947</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379226</v>
+        <v>60.8570041237922</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400149</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.2736090453961</v>
+        <v>154.273609045396</v>
       </c>
       <c r="T46" t="n">
-        <v>184.0535329901234</v>
+        <v>184.0535329901233</v>
       </c>
       <c r="U46" t="n">
         <v>250.716421919567</v>
       </c>
       <c r="V46" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377821</v>
       </c>
       <c r="W46" t="n">
-        <v>86.60146417464017</v>
+        <v>251.0275820505451</v>
       </c>
       <c r="X46" t="n">
         <v>190.2142391029913</v>
       </c>
       <c r="Y46" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660489</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>920.4225254400158</v>
+        <v>629.6153250609475</v>
       </c>
       <c r="C2" t="n">
-        <v>920.4225254400158</v>
+        <v>629.6153250609475</v>
       </c>
       <c r="D2" t="n">
-        <v>562.1568268332653</v>
+        <v>473.4154778383031</v>
       </c>
       <c r="E2" t="n">
-        <v>562.1568268332653</v>
+        <v>473.4154778383031</v>
       </c>
       <c r="F2" t="n">
-        <v>555.2113260840619</v>
+        <v>62.42957304869556</v>
       </c>
       <c r="G2" t="n">
-        <v>541.0395078903825</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="H2" t="n">
-        <v>211.3007166942733</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="I2" t="n">
         <v>48.25775485501627</v>
       </c>
       <c r="J2" t="n">
-        <v>143.361340524478</v>
+        <v>143.3613405244782</v>
       </c>
       <c r="K2" t="n">
         <v>406.6417666293496</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024627</v>
+        <v>785.5410436024628</v>
       </c>
       <c r="M2" t="n">
         <v>1223.746040782769</v>
@@ -4355,25 +4355,25 @@
         <v>2342.254609045089</v>
       </c>
       <c r="S2" t="n">
-        <v>2342.254609045089</v>
+        <v>2160.416384320152</v>
       </c>
       <c r="T2" t="n">
-        <v>2342.254609045089</v>
+        <v>1940.694284428202</v>
       </c>
       <c r="U2" t="n">
-        <v>2342.254609045089</v>
+        <v>1686.912625935712</v>
       </c>
       <c r="V2" t="n">
-        <v>2011.191721701518</v>
+        <v>1355.849738592141</v>
       </c>
       <c r="W2" t="n">
-        <v>1658.423066431404</v>
+        <v>1003.081083322027</v>
       </c>
       <c r="X2" t="n">
-        <v>1284.957308170324</v>
+        <v>629.6153250609475</v>
       </c>
       <c r="Y2" t="n">
-        <v>920.4225254400158</v>
+        <v>629.6153250609475</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>928.1231689300232</v>
+        <v>814.3524755586716</v>
       </c>
       <c r="C3" t="n">
-        <v>753.6701396488962</v>
+        <v>814.3524755586716</v>
       </c>
       <c r="D3" t="n">
-        <v>604.735729987645</v>
+        <v>665.4180658974203</v>
       </c>
       <c r="E3" t="n">
-        <v>445.4982749821895</v>
+        <v>506.1806108919648</v>
       </c>
       <c r="F3" t="n">
         <v>359.6460529188497</v>
@@ -4407,22 +4407,22 @@
         <v>48.25775485501627</v>
       </c>
       <c r="J3" t="n">
-        <v>111.2074192719582</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="K3" t="n">
-        <v>345.4192653503517</v>
+        <v>282.4696009334098</v>
       </c>
       <c r="L3" t="n">
-        <v>721.7503922265947</v>
+        <v>658.8007278096528</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.890288538965</v>
+        <v>1149.940624122024</v>
       </c>
       <c r="N3" t="n">
-        <v>1732.736209861809</v>
+        <v>1536.932332987184</v>
       </c>
       <c r="O3" t="n">
-        <v>2141.877989476833</v>
+        <v>1946.074112602208</v>
       </c>
       <c r="P3" t="n">
         <v>2257.443393642317</v>
@@ -4443,16 +4443,16 @@
         <v>1766.18766164878</v>
       </c>
       <c r="V3" t="n">
-        <v>1766.18766164878</v>
+        <v>1531.035553417037</v>
       </c>
       <c r="W3" t="n">
-        <v>1511.950304920578</v>
+        <v>1276.798196688835</v>
       </c>
       <c r="X3" t="n">
-        <v>1304.098804715045</v>
+        <v>1068.946696483303</v>
       </c>
       <c r="Y3" t="n">
-        <v>1096.338505950091</v>
+        <v>861.1863977183486</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>449.392313867608</v>
+        <v>341.8610903509007</v>
       </c>
       <c r="C4" t="n">
-        <v>280.4561309397011</v>
+        <v>341.8610903509007</v>
       </c>
       <c r="D4" t="n">
-        <v>280.4561309397011</v>
+        <v>341.8610903509007</v>
       </c>
       <c r="E4" t="n">
-        <v>132.543037357308</v>
+        <v>341.8610903509007</v>
       </c>
       <c r="F4" t="n">
-        <v>132.543037357308</v>
+        <v>217.3689851444583</v>
       </c>
       <c r="G4" t="n">
-        <v>132.543037357308</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="H4" t="n">
-        <v>132.543037357308</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="I4" t="n">
-        <v>101.7923822515375</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="J4" t="n">
         <v>48.25775485501627</v>
@@ -4519,19 +4519,19 @@
         <v>631.0407786978477</v>
       </c>
       <c r="U4" t="n">
-        <v>631.0407786978477</v>
+        <v>341.8610903509007</v>
       </c>
       <c r="V4" t="n">
-        <v>631.0407786978477</v>
+        <v>341.8610903509007</v>
       </c>
       <c r="W4" t="n">
-        <v>631.0407786978477</v>
+        <v>341.8610903509007</v>
       </c>
       <c r="X4" t="n">
-        <v>631.0407786978477</v>
+        <v>341.8610903509007</v>
       </c>
       <c r="Y4" t="n">
-        <v>631.0407786978477</v>
+        <v>341.8610903509007</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1533.27522618254</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>1101.606557854604</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>743.3408592478534</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>743.3408592478534</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>736.3953584986499</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>318.4315503968368</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4583,10 +4583,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V5" t="n">
-        <v>2259.509639713734</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W5" t="n">
-        <v>1906.74098444362</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X5" t="n">
-        <v>1533.27522618254</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="Y5" t="n">
-        <v>1533.27522618254</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961344</v>
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4656,31 +4656,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4689,7 +4689,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1310.22335213854</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C8" t="n">
-        <v>941.2608351981287</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>941.2608351981287</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1994.054894752225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.992007408654</v>
+        <v>2367.614128840753</v>
       </c>
       <c r="W8" t="n">
-        <v>1310.22335213854</v>
+        <v>2014.845473570639</v>
       </c>
       <c r="X8" t="n">
-        <v>1310.22335213854</v>
+        <v>1641.379715309559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1310.22335213854</v>
+        <v>1251.240383333747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.9192350259435</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.9192350259435</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5027,46 +5027,46 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551616</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001582</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089254</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839435</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924157</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.866738172566</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844491</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903273</v>
       </c>
       <c r="O11" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232728</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679674</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188662</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419717</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946812</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839435</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>390.3640755286979</v>
+        <v>559.5976972681533</v>
       </c>
       <c r="C13" t="n">
-        <v>390.3640755286979</v>
+        <v>559.5976972681533</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286979</v>
+        <v>409.4810578558175</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>409.4810578558175</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558175</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839435</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839435</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5212,7 +5212,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1842.558388713849</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1620.791773283375</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1331.688906409018</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208124</v>
+        <v>1077.004418203131</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838518</v>
+        <v>787.5872481661706</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858345</v>
+        <v>559.5976972681533</v>
       </c>
       <c r="Y13" t="n">
-        <v>390.3640755286979</v>
+        <v>559.5976972681533</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,52 +5276,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N14" t="n">
-        <v>2883.993034926781</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5373,34 +5373,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>556.371005353728</v>
+        <v>873.2202818640282</v>
       </c>
       <c r="C16" t="n">
-        <v>556.371005353728</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D16" t="n">
-        <v>556.371005353728</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E16" t="n">
         <v>556.371005353728</v>
@@ -5437,19 +5437,19 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1792.016574444702</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1792.016574444702</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U16" t="n">
-        <v>1502.913707570346</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V16" t="n">
-        <v>1248.229219364458</v>
+        <v>1322.725653781989</v>
       </c>
       <c r="W16" t="n">
-        <v>958.8120493274979</v>
+        <v>1282.858297592285</v>
       </c>
       <c r="X16" t="n">
-        <v>958.8120493274979</v>
+        <v>1054.868746694268</v>
       </c>
       <c r="Y16" t="n">
-        <v>738.0194701839678</v>
+        <v>1054.868746694268</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,22 +5513,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>413.1422297553295</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>1067.865561890629</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1518.899775139038</v>
       </c>
       <c r="M17" t="n">
-        <v>1770.231306037953</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N17" t="n">
-        <v>2749.9835782646</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O17" t="n">
-        <v>3629.948228594054</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
         <v>4260.556453353931</v>
@@ -5540,25 +5540,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,13 +5592,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5607,25 +5607,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>873.2202818640282</v>
+        <v>412.4103109586944</v>
       </c>
       <c r="C19" t="n">
-        <v>704.2840989361212</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D19" t="n">
-        <v>704.2840989361212</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
         <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1764.65758193153</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1509.973093725643</v>
+        <v>1150.609611037203</v>
       </c>
       <c r="W19" t="n">
-        <v>1275.661325837798</v>
+        <v>861.1924410002418</v>
       </c>
       <c r="X19" t="n">
-        <v>1275.661325837798</v>
+        <v>633.2028901022245</v>
       </c>
       <c r="Y19" t="n">
-        <v>1054.868746694268</v>
+        <v>412.4103109586944</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5747,55 +5747,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2274.668463554307</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3254.420735780953</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5826,37 +5826,37 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>681.9433364046627</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C22" t="n">
-        <v>681.9433364046627</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.6836668953299</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
         <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1674.827124689058</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1420.142636483171</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W22" t="n">
-        <v>1130.72546644621</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X22" t="n">
-        <v>902.7359155481928</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y22" t="n">
-        <v>681.9433364046627</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5990,22 +5990,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>1034.340101969334</v>
       </c>
       <c r="L23" t="n">
-        <v>1971.087962216427</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M23" t="n">
-        <v>2504.619866888352</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>3484.372139114998</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>3987.344609994335</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>943.1650632406971</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="C25" t="n">
-        <v>774.2288803127902</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="D25" t="n">
-        <v>624.1122409004545</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E25" t="n">
-        <v>476.1991473180614</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F25" t="n">
-        <v>329.309199820151</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G25" t="n">
         <v>192.8867116300491</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1938.353280781329</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1716.586665350855</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384227</v>
+        <v>1427.483798476499</v>
       </c>
       <c r="V25" t="n">
-        <v>1163.957642384227</v>
+        <v>1172.799310270612</v>
       </c>
       <c r="W25" t="n">
-        <v>1163.957642384227</v>
+        <v>883.3821402336509</v>
       </c>
       <c r="X25" t="n">
-        <v>1163.957642384227</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="Y25" t="n">
-        <v>943.1650632406971</v>
+        <v>655.3925893356336</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2536.15366264131</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3082.932479700092</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3962.897130029547</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4357.671496386725</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1038.907458858443</v>
+        <v>491.7343098287688</v>
       </c>
       <c r="C28" t="n">
-        <v>869.9712759305357</v>
+        <v>322.7981269008619</v>
       </c>
       <c r="D28" t="n">
-        <v>719.8546365182</v>
+        <v>322.7981269008619</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6388,16 +6388,16 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1764.65758193153</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1509.973093725643</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>1220.555923688682</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X28" t="n">
-        <v>1220.555923688682</v>
+        <v>673.3827746590085</v>
       </c>
       <c r="Y28" t="n">
-        <v>1220.555923688682</v>
+        <v>673.3827746590085</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
@@ -6449,40 +6449,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.197710791128</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M29" t="n">
-        <v>2368.748013620957</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N29" t="n">
-        <v>3348.500285847604</v>
+        <v>3496.417082105038</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075805</v>
+        <v>3999.389552984375</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6546,7 +6546,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>742.0073655524387</v>
+        <v>488.8938622403219</v>
       </c>
       <c r="C31" t="n">
-        <v>573.0711826245318</v>
+        <v>319.9576793124151</v>
       </c>
       <c r="D31" t="n">
-        <v>422.9545432121961</v>
+        <v>169.8410399000792</v>
       </c>
       <c r="E31" t="n">
-        <v>275.0414496298032</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>275.0414496298032</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6646,25 +6646,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>1190.789495593986</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>962.7999446959689</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.0073655524387</v>
+        <v>488.8938622403219</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>357.0540087506643</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>690.8733824405108</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1141.90759568892</v>
       </c>
       <c r="M32" t="n">
-        <v>1923.729615463053</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N32" t="n">
-        <v>2877.428556330836</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660291</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862919</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.6551842908924</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>784.0235789048305</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6871,7 +6871,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1644.746393431757</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1644.746393431757</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1390.061905225871</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W34" t="n">
-        <v>1100.64473518891</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X34" t="n">
-        <v>872.6551842908924</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>872.6551842908924</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010021</v>
       </c>
       <c r="C35" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.1544039141</v>
       </c>
       <c r="D35" t="n">
         <v>1456.742661151839</v>
@@ -6923,64 +6923,64 @@
         <v>1106.808364398086</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529687</v>
       </c>
       <c r="G35" t="n">
         <v>352.4579211424557</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571334</v>
+        <v>90.72827659571365</v>
       </c>
       <c r="I35" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967284</v>
       </c>
       <c r="J35" t="n">
-        <v>273.4644646386982</v>
+        <v>273.4644646386983</v>
       </c>
       <c r="K35" t="n">
-        <v>928.1877967739978</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L35" t="n">
-        <v>1792.706612427352</v>
+        <v>1471.8026539819</v>
       </c>
       <c r="M35" t="n">
-        <v>2326.238517099277</v>
+        <v>2005.334558653824</v>
       </c>
       <c r="N35" t="n">
-        <v>2873.017334158059</v>
+        <v>2985.086830880471</v>
       </c>
       <c r="O35" t="n">
-        <v>3375.989805037396</v>
+        <v>3488.059301759808</v>
       </c>
       <c r="P35" t="n">
-        <v>3770.764171394575</v>
+        <v>3882.833668116986</v>
       </c>
       <c r="Q35" t="n">
-        <v>4170.249617426836</v>
+        <v>4131.120029872668</v>
       </c>
       <c r="R35" t="n">
-        <v>4229.266683983638</v>
+        <v>4229.266683983642</v>
       </c>
       <c r="S35" t="n">
-        <v>4154.829971355224</v>
+        <v>4154.829971355228</v>
       </c>
       <c r="T35" t="n">
-        <v>3984.706179583937</v>
+        <v>3984.70617958394</v>
       </c>
       <c r="U35" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702267</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203186</v>
       </c>
       <c r="W35" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777563</v>
       </c>
       <c r="X35" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360974</v>
       </c>
       <c r="Y35" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.008849229652</v>
       </c>
     </row>
     <row r="36">
@@ -6999,28 +6999,28 @@
         <v>636.2296327862198</v>
       </c>
       <c r="E36" t="n">
-        <v>476.9921777807642</v>
+        <v>476.9921777807643</v>
       </c>
       <c r="F36" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076493</v>
       </c>
       <c r="G36" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402674</v>
       </c>
       <c r="H36" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781349</v>
       </c>
       <c r="I36" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967284</v>
       </c>
       <c r="J36" t="n">
-        <v>178.2626031702901</v>
+        <v>178.2626031702902</v>
       </c>
       <c r="K36" t="n">
         <v>416.5268021506373</v>
       </c>
       <c r="L36" t="n">
-        <v>783.2249624633026</v>
+        <v>783.2249624633027</v>
       </c>
       <c r="M36" t="n">
         <v>1230.501287685619</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>614.8011882591692</v>
+        <v>748.345975840212</v>
       </c>
       <c r="C37" t="n">
-        <v>481.718961175753</v>
+        <v>615.2637487567955</v>
       </c>
       <c r="D37" t="n">
-        <v>367.4562776079079</v>
+        <v>501.0010651889504</v>
       </c>
       <c r="E37" t="n">
-        <v>367.4562776079079</v>
+        <v>388.9419274510475</v>
       </c>
       <c r="F37" t="n">
-        <v>256.4202859544882</v>
+        <v>277.9059357976276</v>
       </c>
       <c r="G37" t="n">
-        <v>256.4202859544882</v>
+        <v>146.057055016837</v>
       </c>
       <c r="H37" t="n">
-        <v>146.0570550168367</v>
+        <v>146.057055016837</v>
       </c>
       <c r="I37" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967284</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497935</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218549</v>
       </c>
       <c r="L37" t="n">
-        <v>755.6763338935368</v>
+        <v>755.6763338935361</v>
       </c>
       <c r="M37" t="n">
-        <v>1134.973841616271</v>
+        <v>1134.97384161627</v>
       </c>
       <c r="N37" t="n">
-        <v>1511.522680445321</v>
+        <v>1511.52268044532</v>
       </c>
       <c r="O37" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488918</v>
       </c>
       <c r="P37" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045763</v>
       </c>
       <c r="Q37" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321463</v>
       </c>
       <c r="R37" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923481</v>
       </c>
       <c r="S37" t="n">
-        <v>2016.6830325948</v>
+        <v>2172.514960923481</v>
       </c>
       <c r="T37" t="n">
-        <v>1830.770373008817</v>
+        <v>1996.857360762261</v>
       </c>
       <c r="U37" t="n">
-        <v>1577.521461978951</v>
+        <v>1743.608449732395</v>
       </c>
       <c r="V37" t="n">
-        <v>1358.690929617555</v>
+        <v>1524.777917370998</v>
       </c>
       <c r="W37" t="n">
-        <v>1137.669915597484</v>
+        <v>1271.214703178528</v>
       </c>
       <c r="X37" t="n">
-        <v>945.5343205439576</v>
+        <v>1079.079108125001</v>
       </c>
       <c r="Y37" t="n">
-        <v>760.5956972449183</v>
+        <v>894.1404848259613</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C38" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D38" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E38" t="n">
         <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529681</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424552</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H38" t="n">
-        <v>90.72827659571328</v>
+        <v>90.72827659571334</v>
       </c>
       <c r="I38" t="n">
         <v>84.58533367967277</v>
       </c>
       <c r="J38" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K38" t="n">
-        <v>774.6894873488977</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L38" t="n">
-        <v>1225.723700597307</v>
+        <v>1433.828042871775</v>
       </c>
       <c r="M38" t="n">
-        <v>1781.864700835971</v>
+        <v>2412.378345701603</v>
       </c>
       <c r="N38" t="n">
-        <v>2328.643517894754</v>
+        <v>2959.157162760386</v>
       </c>
       <c r="O38" t="n">
-        <v>3208.608168224208</v>
+        <v>3462.129633639723</v>
       </c>
       <c r="P38" t="n">
-        <v>3921.963255671154</v>
+        <v>3856.903999996901</v>
       </c>
       <c r="Q38" t="n">
-        <v>4170.249617426836</v>
+        <v>4105.190361752583</v>
       </c>
       <c r="R38" t="n">
         <v>4229.266683983638</v>
@@ -7211,13 +7211,13 @@
         <v>3471.820727203184</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X38" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y38" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285977</v>
       </c>
       <c r="C39" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474707</v>
       </c>
       <c r="D39" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862196</v>
       </c>
       <c r="E39" t="n">
-        <v>476.9921777807642</v>
+        <v>476.992177780764</v>
       </c>
       <c r="F39" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076491</v>
       </c>
       <c r="G39" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402677</v>
       </c>
       <c r="H39" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781352</v>
       </c>
       <c r="I39" t="n">
         <v>84.58533367967277</v>
       </c>
       <c r="J39" t="n">
-        <v>178.2626031702901</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K39" t="n">
-        <v>416.5268021506373</v>
+        <v>416.5268021506372</v>
       </c>
       <c r="L39" t="n">
         <v>783.2249624633026</v>
@@ -7290,7 +7290,7 @@
         <v>1797.681564447354</v>
       </c>
       <c r="W39" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X39" t="n">
         <v>1335.59270751362</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>636.2354894847523</v>
+        <v>612.5976424292265</v>
       </c>
       <c r="C40" t="n">
-        <v>636.2354894847523</v>
+        <v>479.5154153458103</v>
       </c>
       <c r="D40" t="n">
-        <v>521.9728059169073</v>
+        <v>479.5154153458103</v>
       </c>
       <c r="E40" t="n">
-        <v>409.913668179005</v>
+        <v>367.4562776079079</v>
       </c>
       <c r="F40" t="n">
-        <v>298.8776765255855</v>
+        <v>256.4202859544882</v>
       </c>
       <c r="G40" t="n">
-        <v>256.4202859544881</v>
+        <v>256.4202859544882</v>
       </c>
       <c r="H40" t="n">
         <v>146.0570550168367</v>
@@ -7330,52 +7330,52 @@
         <v>84.58533367967277</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497939</v>
+        <v>164.8484282497938</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218556</v>
+        <v>403.9760733218555</v>
       </c>
       <c r="L40" t="n">
         <v>755.676333893537</v>
       </c>
       <c r="M40" t="n">
-        <v>1134.973841616272</v>
+        <v>1134.973841616271</v>
       </c>
       <c r="N40" t="n">
-        <v>1511.522680445322</v>
+        <v>1511.522680445321</v>
       </c>
       <c r="O40" t="n">
-        <v>1845.992741488921</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P40" t="n">
-        <v>2113.740704045766</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q40" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R40" t="n">
-        <v>2226.491462321465</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S40" t="n">
-        <v>2070.659533992783</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T40" t="n">
-        <v>1884.746874406799</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U40" t="n">
-        <v>1631.497963376933</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.667431015537</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W40" t="n">
-        <v>1159.104216823067</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X40" t="n">
-        <v>966.9686217695408</v>
+        <v>912.9921203715585</v>
       </c>
       <c r="Y40" t="n">
-        <v>782.0299984705015</v>
+        <v>758.3921514149756</v>
       </c>
     </row>
     <row r="41">
@@ -7388,10 +7388,10 @@
         <v>2112.26296501002</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D41" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E41" t="n">
         <v>1106.808364398085</v>
@@ -7400,10 +7400,10 @@
         <v>731.6764154529681</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424553</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H41" t="n">
-        <v>90.72827659571328</v>
+        <v>90.72827659571331</v>
       </c>
       <c r="I41" t="n">
         <v>84.58533367967277</v>
@@ -7412,19 +7412,19 @@
         <v>273.4644646386982</v>
       </c>
       <c r="K41" t="n">
-        <v>607.2838383285448</v>
+        <v>928.1877967739978</v>
       </c>
       <c r="L41" t="n">
-        <v>1065.913843378164</v>
+        <v>1625.324975614164</v>
       </c>
       <c r="M41" t="n">
-        <v>2044.464146207992</v>
+        <v>2158.856880286089</v>
       </c>
       <c r="N41" t="n">
-        <v>3024.216418434639</v>
+        <v>2705.635697344871</v>
       </c>
       <c r="O41" t="n">
-        <v>3527.188889313976</v>
+        <v>3208.608168224208</v>
       </c>
       <c r="P41" t="n">
         <v>3921.963255671154</v>
@@ -7436,25 +7436,25 @@
         <v>4229.266683983638</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355224</v>
+        <v>4154.829971355223</v>
       </c>
       <c r="T41" t="n">
-        <v>3984.706179583937</v>
+        <v>3984.706179583936</v>
       </c>
       <c r="U41" t="n">
         <v>3767.029658702264</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W41" t="n">
         <v>3154.906027777561</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="42">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.1716476727549</v>
+        <v>768.171647672754</v>
       </c>
       <c r="C43" t="n">
-        <v>635.0894205893387</v>
+        <v>635.0894205893378</v>
       </c>
       <c r="D43" t="n">
-        <v>520.8267370214937</v>
+        <v>520.8267370214928</v>
       </c>
       <c r="E43" t="n">
-        <v>408.7675992835914</v>
+        <v>408.7675992835905</v>
       </c>
       <c r="F43" t="n">
-        <v>297.7316076301718</v>
+        <v>297.7316076301706</v>
       </c>
       <c r="G43" t="n">
-        <v>194.9485646173242</v>
+        <v>256.4202859544881</v>
       </c>
       <c r="H43" t="n">
-        <v>84.58533367967277</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I43" t="n">
         <v>84.58533367967277</v>
       </c>
       <c r="J43" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497939</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218556</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935369</v>
+        <v>755.676333893537</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7600,19 +7600,19 @@
         <v>2016.683032594801</v>
       </c>
       <c r="U43" t="n">
-        <v>1763.434121564936</v>
+        <v>1763.434121564935</v>
       </c>
       <c r="V43" t="n">
-        <v>1544.60358920354</v>
+        <v>1544.603589203539</v>
       </c>
       <c r="W43" t="n">
-        <v>1291.04037501107</v>
+        <v>1291.040375011069</v>
       </c>
       <c r="X43" t="n">
-        <v>1098.904779957543</v>
+        <v>1098.904779957542</v>
       </c>
       <c r="Y43" t="n">
-        <v>913.9661566585039</v>
+        <v>913.966156658503</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D44" t="n">
         <v>1456.742661151839</v>
       </c>
       <c r="E44" t="n">
-        <v>1106.808364398086</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529681</v>
+        <v>731.6764154529683</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424553</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571328</v>
+        <v>90.72827659571323</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J44" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K44" t="n">
-        <v>1079.386881050577</v>
+        <v>607.2838383285447</v>
       </c>
       <c r="L44" t="n">
-        <v>1943.905696703932</v>
+        <v>1065.913843378163</v>
       </c>
       <c r="M44" t="n">
-        <v>2477.437601375857</v>
+        <v>2044.464146207991</v>
       </c>
       <c r="N44" t="n">
-        <v>3024.216418434639</v>
+        <v>3024.216418434638</v>
       </c>
       <c r="O44" t="n">
-        <v>3527.188889313976</v>
+        <v>3527.188889313975</v>
       </c>
       <c r="P44" t="n">
-        <v>3921.963255671154</v>
+        <v>3921.963255671153</v>
       </c>
       <c r="Q44" t="n">
-        <v>4170.249617426836</v>
+        <v>4170.249617426835</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983638</v>
+        <v>4229.266683983637</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355224</v>
+        <v>4154.829971355223</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583937</v>
+        <v>3984.706179583936</v>
       </c>
       <c r="U44" t="n">
         <v>3767.029658702264</v>
       </c>
       <c r="V44" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W44" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.90602777756</v>
       </c>
       <c r="X44" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y44" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J45" t="n">
         <v>178.2626031702901</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>748.3459758402103</v>
+        <v>636.2354894847531</v>
       </c>
       <c r="C46" t="n">
-        <v>615.263748756794</v>
+        <v>636.2354894847531</v>
       </c>
       <c r="D46" t="n">
-        <v>501.001065188949</v>
+        <v>521.9728059169082</v>
       </c>
       <c r="E46" t="n">
-        <v>388.9419274510467</v>
+        <v>409.9136681790058</v>
       </c>
       <c r="F46" t="n">
-        <v>277.9059357976271</v>
+        <v>298.8776765255864</v>
       </c>
       <c r="G46" t="n">
-        <v>146.0570550168367</v>
+        <v>167.0287957447957</v>
       </c>
       <c r="H46" t="n">
-        <v>146.0570550168367</v>
+        <v>146.0570550168366</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497938</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218555</v>
+        <v>403.9760733218556</v>
       </c>
       <c r="L46" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935372</v>
       </c>
       <c r="M46" t="n">
-        <v>1134.973841616271</v>
+        <v>1134.973841616272</v>
       </c>
       <c r="N46" t="n">
-        <v>1511.522680445321</v>
+        <v>1511.522680445322</v>
       </c>
       <c r="O46" t="n">
         <v>1845.99274148892</v>
@@ -7828,28 +7828,28 @@
         <v>2226.491462321465</v>
       </c>
       <c r="R46" t="n">
-        <v>2172.514960923484</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="S46" t="n">
-        <v>2016.683032594801</v>
+        <v>2070.659533992783</v>
       </c>
       <c r="T46" t="n">
-        <v>1830.770373008817</v>
+        <v>1884.746874406799</v>
       </c>
       <c r="U46" t="n">
-        <v>1577.521461978952</v>
+        <v>1631.497963376934</v>
       </c>
       <c r="V46" t="n">
-        <v>1358.690929617556</v>
+        <v>1412.667431015537</v>
       </c>
       <c r="W46" t="n">
-        <v>1271.214703178525</v>
+        <v>1159.104216823068</v>
       </c>
       <c r="X46" t="n">
-        <v>1079.079108124999</v>
+        <v>966.9686217695414</v>
       </c>
       <c r="Y46" t="n">
-        <v>894.1404848259592</v>
+        <v>782.0299984705021</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>62.50551572733617</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>345.1462001438735</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>120.6810748271845</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>288.047814956099</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>285.7011105564207</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>161.8544041422902</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,25 +9161,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>130.0020851999088</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>238.2160185885842</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,22 +9407,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>354.4836849406604</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>251.1867816683982</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9647,16 +9647,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>23.80814351663651</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>114.2189875964762</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>161.0524397463281</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>77.35795430877096</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>73.34731650832771</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>411.0304280899003</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>152.7263477541207</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>39.52483591330446</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>379.3030215099205</v>
       </c>
       <c r="M38" t="n">
-        <v>22.83747026943456</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,22 +11060,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>7.672516970919162</v>
+        <v>248.5888541330888</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>307.7751451532116</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>7.672516970918366</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>166.0539513845426</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>128.1651665445298</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>27.0854025880406</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>247.0543157087847</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>149.990939620226</v>
       </c>
       <c r="W19" t="n">
-        <v>54.55434812762437</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>120.6512856876252</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,16 +24178,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>271.1000969860415</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>30.96754495082733</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>171.9587418613016</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>80.93758820358019</v>
+        <v>66.89028914155759</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>72.89675724940122</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>84.6926176392716</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>79.50153176642657</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="35">
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>110.9385463605234</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729824</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>109.2595986282752</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>154.2736090453963</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>10.15250883051553</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>32.21677817067507</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>131.751404812582</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>88.49757530759636</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400148</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>30.03526779903186</v>
       </c>
     </row>
     <row r="41">
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>28.77517939026333</v>
+        <v>89.63218351405671</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379226</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>131.7514048125819</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>109.2595986282749</v>
+        <v>88.49757530759541</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>53.43673638400143</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>164.426117875905</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>861640.6778858803</v>
+        <v>861640.6778858805</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>861640.6778858803</v>
+        <v>861640.6778858805</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>861640.6778858803</v>
+        <v>861640.6778858805</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>861640.6778858806</v>
+        <v>861640.6778858805</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874317.4949817127</v>
+        <v>874317.4949817125</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049979</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
         <v>555914.5016417764</v>
       </c>
       <c r="F2" t="n">
-        <v>555914.5016417762</v>
+        <v>555914.5016417764</v>
       </c>
       <c r="G2" t="n">
-        <v>555914.5016417766</v>
+        <v>555914.5016417764</v>
       </c>
       <c r="H2" t="n">
         <v>555914.5016417764</v>
       </c>
       <c r="I2" t="n">
-        <v>555914.5016417762</v>
+        <v>555914.5016417763</v>
       </c>
       <c r="J2" t="n">
-        <v>555914.5016417766</v>
+        <v>555914.5016417763</v>
       </c>
       <c r="K2" t="n">
         <v>555914.5016417764</v>
       </c>
       <c r="L2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417763</v>
       </c>
       <c r="M2" t="n">
-        <v>570131.3188677286</v>
+        <v>570131.3188677281</v>
       </c>
       <c r="N2" t="n">
+        <v>570131.3188677281</v>
+      </c>
+      <c r="O2" t="n">
         <v>570131.3188677285</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>570131.3188677282</v>
-      </c>
-      <c r="P2" t="n">
-        <v>570131.3188677286</v>
       </c>
     </row>
     <row r="3">
@@ -26366,43 +26366,43 @@
         <v>507203.142839427</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217418017</v>
+        <v>78665.2821741802</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.28461737808539e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410735</v>
+        <v>157829.4001410736</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022161</v>
+        <v>18289.94367022159</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>123848.791188175</v>
+        <v>123848.7911881748</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>1.932676241267473e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>9.299104984420436e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232017.7717547198</v>
+        <v>232017.7717547197</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630333</v>
+        <v>209922.4154630332</v>
       </c>
       <c r="D4" t="n">
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289581</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="I4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289573</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="L4" t="n">
         <v>28561.83935289576</v>
       </c>
       <c r="M4" t="n">
-        <v>55718.30868501856</v>
+        <v>55718.30868501838</v>
       </c>
       <c r="N4" t="n">
-        <v>55718.30868501862</v>
+        <v>55718.30868501855</v>
       </c>
       <c r="O4" t="n">
-        <v>55718.30868501856</v>
+        <v>55718.30868501861</v>
       </c>
       <c r="P4" t="n">
-        <v>55718.30868501856</v>
+        <v>55718.30868501865</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>77204.68871133434</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="H5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>91026.04982123678</v>
+        <v>91026.04982123683</v>
       </c>
       <c r="N5" t="n">
         <v>91026.04982123678</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-241696.3644004828</v>
+        <v>-241696.3644004832</v>
       </c>
       <c r="C6" t="n">
-        <v>203282.4632043758</v>
+        <v>203282.4632043757</v>
       </c>
       <c r="D6" t="n">
-        <v>281947.745378556</v>
+        <v>281947.7453785561</v>
       </c>
       <c r="E6" t="n">
-        <v>-296408.2699582397</v>
+        <v>-296475.4654484654</v>
       </c>
       <c r="F6" t="n">
-        <v>430969.1440351668</v>
+        <v>430901.9485449412</v>
       </c>
       <c r="G6" t="n">
-        <v>430969.1440351672</v>
+        <v>430901.9485449415</v>
       </c>
       <c r="H6" t="n">
-        <v>430969.1440351671</v>
+        <v>430901.9485449411</v>
       </c>
       <c r="I6" t="n">
-        <v>430969.1440351668</v>
+        <v>430901.9485449411</v>
       </c>
       <c r="J6" t="n">
-        <v>273139.7438940937</v>
+        <v>273072.5484038675</v>
       </c>
       <c r="K6" t="n">
-        <v>412679.2003649454</v>
+        <v>412612.0048747196</v>
       </c>
       <c r="L6" t="n">
-        <v>430969.1440351671</v>
+        <v>430901.9485449411</v>
       </c>
       <c r="M6" t="n">
-        <v>299538.1691732983</v>
+        <v>299521.7480303079</v>
       </c>
       <c r="N6" t="n">
-        <v>423386.960361473</v>
+        <v>423370.5392184823</v>
       </c>
       <c r="O6" t="n">
-        <v>423386.9603614729</v>
+        <v>423370.5392184827</v>
       </c>
       <c r="P6" t="n">
-        <v>423386.9603614733</v>
+        <v>423370.5392184826</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.071167551725043e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>35.49541628604555</v>
+      </c>
+      <c r="N2" t="n">
         <v>35.49541628604579</v>
       </c>
-      <c r="N2" t="n">
-        <v>35.49541628604585</v>
-      </c>
       <c r="O2" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26790,13 +26790,13 @@
         <v>603.2219356877034</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604929</v>
       </c>
       <c r="F4" t="n">
         <v>1194.51293060493</v>
@@ -26829,7 +26829,7 @@
         <v>1057.31667099591</v>
       </c>
       <c r="P4" t="n">
-        <v>1057.31667099591</v>
+        <v>1057.316670995909</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.071167551725043e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.071167551725043e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.415845301584341e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.162388123052554e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26972,10 +26972,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-1.342193236405068e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>603.2219356877034</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685218</v>
+        <v>71.06533706685229</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503738</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877034</v>
+        <v>603.2219356877035</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685218</v>
+        <v>71.06533706685229</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.071167551725043e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.071167551725043e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>603.2219356877034</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685218</v>
+        <v>71.06533706685229</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503738</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>200.045192870265</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.4414032841481</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>161.4125322208644</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776875</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930305</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2438419075651</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>25.34850375304796</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>120.1676007117871</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>60.07551255067753</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>22.17386386855335</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4201179865476</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
-        <v>107.8399680245273</v>
+        <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.99928112255605</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>225.5064544755703</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2878914634775</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>62.07908987364959</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>123.3833170624752</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>17.40933785016566</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5033489463932881</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.512645914440213</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>4.910330425104604</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>158.8578157762261</v>
       </c>
     </row>
     <row r="11">
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>8.071167551725043e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,10 +28138,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.071167551725043e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.785327524179593e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604555</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604464</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604464</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604589</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,7 +32558,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32798,7 +32798,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33266,7 +33266,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.58551961307266</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>236.5776223014076</v>
@@ -34787,13 +34787,13 @@
         <v>496.100905366031</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250946</v>
+        <v>390.9007160254146</v>
       </c>
       <c r="O3" t="n">
         <v>413.2745248636607</v>
       </c>
       <c r="P3" t="n">
-        <v>116.7327314802872</v>
+        <v>314.5144252930398</v>
       </c>
       <c r="Q3" t="n">
         <v>157.0144940489862</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015114996</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P11" t="n">
-        <v>684.4630967757926</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>743.6379293484354</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35659,7 +35659,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>669.9074050305093</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35668,7 +35668,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>320.7890861686213</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>636.978004807956</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
@@ -36127,22 +36127,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>893.4048007708872</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36358,7 +36358,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>588.3780682237987</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
@@ -36367,16 +36367,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>422.5701297360084</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36446,7 +36446,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>365.0132924001957</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>669.1054406345472</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>476.1199405281428</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>264.1343174770403</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>963.3322635028118</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
@@ -37087,7 +37087,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
@@ -37315,7 +37315,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37324,10 +37324,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>403.5206525578402</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>99.13803445552924</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911201</v>
+        <v>81.07383289911178</v>
       </c>
       <c r="K37" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303651</v>
       </c>
       <c r="L37" t="n">
-        <v>355.2527884562439</v>
+        <v>355.2527884562436</v>
       </c>
       <c r="M37" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795294</v>
       </c>
       <c r="N37" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535857</v>
       </c>
       <c r="O37" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086853</v>
       </c>
       <c r="P37" t="n">
-        <v>270.4524874311562</v>
+        <v>270.452487431156</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239392</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>834.8931359022527</v>
       </c>
       <c r="M38" t="n">
-        <v>561.7585860996613</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911206</v>
+        <v>81.07383289911203</v>
       </c>
       <c r="K40" t="n">
         <v>241.5430758303654</v>
       </c>
       <c r="L40" t="n">
-        <v>355.2527884562439</v>
+        <v>355.252788456244</v>
       </c>
       <c r="M40" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N40" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O40" t="n">
         <v>337.8485465086856</v>
       </c>
       <c r="P40" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q40" t="n">
         <v>113.8896548239395</v>
@@ -37780,22 +37780,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>463.2626313632513</v>
+        <v>704.1789685254209</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911206</v>
+        <v>81.07383289911205</v>
       </c>
       <c r="K43" t="n">
         <v>241.5430758303654</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>644.966431708612</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>463.2626313632505</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911206</v>
+        <v>81.07383289911212</v>
       </c>
       <c r="K46" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303655</v>
       </c>
       <c r="L46" t="n">
         <v>355.252788456244</v>
@@ -38184,10 +38184,10 @@
         <v>383.1287956795297</v>
       </c>
       <c r="N46" t="n">
-        <v>380.3523624535859</v>
+        <v>380.352362453586</v>
       </c>
       <c r="O46" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086857</v>
       </c>
       <c r="P46" t="n">
         <v>270.4524874311563</v>
